--- a/Spectral.xlsx
+++ b/Spectral.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\science\galactic\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5DB0F1AE-F314-4A01-A3BA-84203AE9C59A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
     <sheet name="O" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
   <si>
     <t>SPECTRAL</t>
   </si>
@@ -241,9 +242,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -282,7 +283,7 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -301,6 +302,12 @@
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
     <dxf>
@@ -310,22 +317,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -341,35 +342,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G6" totalsRowShown="0">
-  <autoFilter ref="A1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G6" totalsRowShown="0">
+  <autoFilter ref="A1:G6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="SPECTRAL"/>
-    <tableColumn id="2" name="LUM"/>
-    <tableColumn id="3" name="NAME"/>
-    <tableColumn id="4" name="MASS/SOL" dataDxfId="8"/>
-    <tableColumn id="5" name="TEMP/K" dataDxfId="9"/>
-    <tableColumn id="7" name="NUMBER"/>
-    <tableColumn id="8" name="STARS"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SPECTRAL"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="LUM"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NAME"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="MASS/SOL" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TEMP/K" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="NUMBER"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="STARS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G50" totalsRowCount="1">
-  <autoFilter ref="A1:G49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:G50" totalsRowCount="1">
+  <autoFilter ref="A1:G49" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState ref="A2:G14">
     <sortCondition ref="F1:F14"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Spectral" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="3" name="Evo" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="Mass" totalsRowFunction="average" dataDxfId="4" totalsRowDxfId="1"/>
-    <tableColumn id="5" name="Temp" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="0"/>
-    <tableColumn id="6" name="Number"/>
-    <tableColumn id="7" name="Remarks" totalsRowFunction="count"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Spectral" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Evo" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Mass" totalsRowFunction="average" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Temp" totalsRowFunction="average" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Number"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Remarks" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -671,22 +672,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.46484375" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" customWidth="1"/>
+    <col min="1" max="1" width="10.4609375" customWidth="1"/>
+    <col min="2" max="2" width="6.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -709,7 +710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -729,7 +730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -749,7 +750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -772,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -785,7 +786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -804,22 +805,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" customWidth="1"/>
-    <col min="6" max="6" width="9.265625" customWidth="1"/>
-    <col min="7" max="7" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.15234375" customWidth="1"/>
+    <col min="6" max="6" width="9.23046875" customWidth="1"/>
+    <col min="7" max="7" width="10.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -847,7 +848,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -876,7 +877,7 @@
         <v>50100</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
@@ -905,7 +906,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -937,7 +938,7 @@
         <v>38500</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
@@ -966,7 +967,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -998,7 +999,7 @@
         <v>33750</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1018,7 +1019,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1098,7 +1099,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
@@ -1118,7 +1119,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1158,7 +1159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>44</v>
       </c>
@@ -1198,7 +1199,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1218,7 +1219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1258,7 +1259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1318,7 +1319,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1358,7 +1359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -1398,7 +1399,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>66</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -1471,121 +1472,121 @@
       <c r="D30" s="3"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="3"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="3"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="3"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="3"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="3"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="3"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="3"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="3"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="3"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="3"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="3"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="3"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="3"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="3"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="3"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="3"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="3"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="3"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -1616,16 +1617,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>19</v>
       </c>
@@ -1636,7 +1637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -1647,7 +1648,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1669,7 +1670,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
